--- a/stats/analysisreegineering-extended-final.xlsx
+++ b/stats/analysisreegineering-extended-final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoa\Desktop\repos\slrdevopsmde\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F41808-2782-4F27-B477-BB6B4577E059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A79292E-5481-4157-8F09-EFBA43B53291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDC595CF-2820-4648-9A3E-8FAD3B95567C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="165">
   <si>
     <t>Model for Service License in API Ecosystems</t>
   </si>
@@ -66,9 +66,6 @@
     <t>CloudMF: Model-Driven Management of Multi-Cloud Applications</t>
   </si>
   <si>
-    <t>UML-driven automated software deployment</t>
-  </si>
-  <si>
     <t>A Model-Driven Engineering Framework to Support the Functional Safety Process</t>
   </si>
   <si>
@@ -99,12 +96,6 @@
     <t>MontiThings: Model-Driven Development and Deployment of Reliable IoT Applications</t>
   </si>
   <si>
-    <t>Towards blended modeling and simulation of DevOps processes: the Keptn case study</t>
-  </si>
-  <si>
-    <t>AI-augmented Model-Based Capabilities in the AIDOaRt Project: Continuous Development of Cyber-Physical Systems</t>
-  </si>
-  <si>
     <t>PIACERE Integrated Development Environment</t>
   </si>
   <si>
@@ -217,9 +208,6 @@
   </si>
   <si>
     <t>Generates the rest API licences and expresses several business constraints for data reliabiity, privacy</t>
-  </si>
-  <si>
-    <t>ci, cd</t>
   </si>
   <si>
     <t>real web shop application</t>
@@ -329,9 +317,6 @@
   <si>
     <t xml:space="preserve"> DevOps techniques were
 used during the development of the aSET project itself.</t>
-  </si>
-  <si>
-    <t>Iot</t>
   </si>
   <si>
     <t>IoT</t>
@@ -448,15 +433,6 @@
   </si>
   <si>
     <t>generate  C&amp;C language  code for deployment of Iot applications and m2m from psm to pim and several envrionment constraints given by the user</t>
-  </si>
-  <si>
-    <t>Keptn is an open-source control plane for orchestrating continuous delivery (CD) and operational processes of cloud-based applications. It started in January 2019 by the company Dynatrace and then donated to the Cloud-Native Computing Foundation (CNCF) in 2020</t>
-  </si>
-  <si>
-    <t>Blended Modeling and Simulation of DevOps Processes</t>
-  </si>
-  <si>
-    <t>devops processes</t>
   </si>
   <si>
     <t>devops pipelines</t>
@@ -575,9 +551,6 @@
     </r>
   </si>
   <si>
-    <t>ci/cd</t>
-  </si>
-  <si>
     <t>The proposed solution is an extension to the
 Justification Diagram (JD) model that would enable developers
 to seamlessly develop such pipelines iterative and incrementally,
@@ -608,6 +581,9 @@
   </si>
   <si>
     <t>Safety-Crytical Systems</t>
+  </si>
+  <si>
+    <t>UML-Driven automated software deployment</t>
   </si>
   <si>
     <t>m2m</t>
@@ -1035,10 +1011,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F9219-DFE0-42A9-9B39-831FCE871F60}">
-  <dimension ref="A1:P53"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1030,7 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
@@ -1062,55 +1039,55 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,46 +1095,46 @@
         <v>2014</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1168,49 +1145,49 @@
         <v>2014</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1218,31 +1195,31 @@
         <v>2016</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -1257,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1268,28 +1245,28 @@
         <v>2016</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1304,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1315,31 +1292,31 @@
         <v>2017</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -1354,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1365,49 +1342,49 @@
         <v>2018</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
         <v>71</v>
       </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1415,31 +1392,31 @@
         <v>2018</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1454,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1465,31 +1442,31 @@
         <v>2018</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1501,92 +1478,92 @@
         <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="B10">
         <v>2018</v>
       </c>
       <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>2019</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1601,42 +1578,42 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>2019</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1651,42 +1628,42 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2019</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
         <v>35</v>
       </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1701,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>2019</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
         <v>35</v>
       </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1751,42 +1728,42 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>2020</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1801,42 +1778,42 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B16">
         <v>2020</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1851,42 +1828,42 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>2020</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
         <v>35</v>
       </c>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -1901,42 +1878,42 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>2021</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" t="s">
-        <v>43</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -1951,42 +1928,42 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>2022</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
         <v>35</v>
       </c>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -2001,130 +1978,133 @@
         <v>1</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>2022</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>2023</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
         <v>51</v>
       </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
         <v>35</v>
       </c>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="J21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>2022</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="B22">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
         <v>38</v>
@@ -2133,107 +2113,107 @@
         <v>136</v>
       </c>
       <c r="K22" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>2024</v>
+      </c>
+      <c r="C23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B23">
-        <v>2023</v>
-      </c>
-      <c r="C23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K23" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B24">
         <v>2024</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" t="s">
-        <v>42</v>
+        <v>140</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K24" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2242,51 +2222,48 @@
         <v>0</v>
       </c>
       <c r="N24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
       </c>
-      <c r="P24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B25">
         <v>2024</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
       <c r="H25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
         <v>35</v>
       </c>
-      <c r="I25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>136</v>
+      <c r="J25" t="s">
+        <v>143</v>
       </c>
       <c r="K25" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
@@ -2295,86 +2272,89 @@
         <v>0</v>
       </c>
       <c r="O25" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>2024</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
         <v>149</v>
       </c>
-      <c r="E26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K26" t="s">
-        <v>150</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>2024</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F27" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="I27" t="s">
-        <v>38</v>
       </c>
       <c r="J27" t="s">
         <v>151</v>
@@ -2392,48 +2372,46 @@
         <v>0</v>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B28">
         <v>2024</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" t="s">
         <v>154</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="6" t="s">
+      <c r="K28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K28" t="s">
-        <v>156</v>
-      </c>
       <c r="L28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
@@ -2444,157 +2422,65 @@
       <c r="O28" t="b">
         <v>0</v>
       </c>
-      <c r="P28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="P28" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>2024</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
         <v>51</v>
       </c>
-      <c r="E29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>158</v>
+      <c r="F29" t="s">
+        <v>156</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
       </c>
       <c r="O29" t="b">
-        <v>1</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>2024</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" t="s">
-        <v>163</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N30" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>2024</v>
-      </c>
-      <c r="C31" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" t="s">
-        <v>166</v>
-      </c>
-      <c r="K31" t="s">
-        <v>166</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" t="b">
-        <v>0</v>
-      </c>
-      <c r="O31" t="b">
-        <v>0</v>
-      </c>
-      <c r="P31" t="s">
-        <v>167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D31"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D32"/>
@@ -2656,24 +2542,25 @@
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52"/>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:P31" xr:uid="{D78F9219-DFE0-42A9-9B39-831FCE871F60}"/>
+  <autoFilter ref="A1:P29" xr:uid="{D78F9219-DFE0-42A9-9B39-831FCE871F60}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="ci, cd"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="417546b7-7497-41cb-8a8a-51c855da4585" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2833,26 +2720,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="417546b7-7497-41cb-8a8a-51c855da4585" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F511B830-FD05-48FC-B126-A818CBF99FF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A32DD714-1737-4DC7-A568-25FDC6D433CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="417546b7-7497-41cb-8a8a-51c855da4585"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2876,9 +2754,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A32DD714-1737-4DC7-A568-25FDC6D433CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F511B830-FD05-48FC-B126-A818CBF99FF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="417546b7-7497-41cb-8a8a-51c855da4585"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>